--- a/DATA_goal/Junction_Flooding_319.xlsx
+++ b/DATA_goal/Junction_Flooding_319.xlsx
@@ -448,10 +448,10 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -655,103 +655,103 @@
         <v>45000.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45000.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.61</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.25</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.8</v>
+        <v>37.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.16</v>
+        <v>31.56</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.52</v>
+        <v>45.23</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.2</v>
+        <v>22.01</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.34</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.39</v>
+        <v>203.89</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.81</v>
+        <v>38.12</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.65</v>
+        <v>26.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.36</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.69</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.24</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.16</v>
+        <v>41.57</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45000.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.09</v>
+        <v>30.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.57</v>
+        <v>25.67</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.44</v>
+        <v>44.42</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.41</v>
+        <v>164.08</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.12</v>
+        <v>31.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.61</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.11</v>
+        <v>41.06</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45000.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.8</v>
+        <v>17.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.27</v>
+        <v>32.73</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.27</v>
+        <v>112.66</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.67</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.02</v>
+        <v>30.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_319.xlsx
+++ b/DATA_goal/Junction_Flooding_319.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45000.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
@@ -759,28 +759,28 @@
         <v>45000.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.61</v>
+        <v>17.613</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.25</v>
+        <v>13.245</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.632</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.95</v>
+        <v>37.951</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.56</v>
+        <v>31.561</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>13.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.23</v>
+        <v>45.226</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.01</v>
+        <v>22.013</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>10.27</v>
@@ -792,70 +792,70 @@
         <v>15.51</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.05</v>
+        <v>16.054</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.42</v>
+        <v>4.424</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.06</v>
+        <v>14.061</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.34</v>
+        <v>19.341</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.1</v>
+        <v>11.099</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.295</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.645</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>203.89</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.12</v>
+        <v>38.117</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.97</v>
+        <v>12.971</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.52</v>
+        <v>26.522</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.36</v>
+        <v>14.362</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.828</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.54</v>
+        <v>23.545</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.32</v>
+        <v>11.324</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>9.83</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.69</v>
+        <v>11.693</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.24</v>
+        <v>16.244</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.57</v>
+        <v>41.574</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.56</v>
+        <v>7.557</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.78</v>
+        <v>15.777</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45000.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.29</v>
+        <v>14.288</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.74</v>
+        <v>10.742</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.88</v>
+        <v>30.876</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.67</v>
+        <v>25.672</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.92</v>
+        <v>10.919</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.42</v>
+        <v>44.417</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.73</v>
+        <v>17.734</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.279</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>11.7</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.58</v>
+        <v>12.577</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.08</v>
+        <v>13.077</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.61</v>
+        <v>3.606</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.41</v>
+        <v>11.408</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.78</v>
+        <v>15.782</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.016999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.45</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.08</v>
+        <v>164.077</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>31.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.53</v>
+        <v>10.532</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.61</v>
+        <v>21.607</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.481</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.85</v>
+        <v>21.852</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.19</v>
+        <v>9.189</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8</v>
+        <v>8.004</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.51</v>
+        <v>9.510999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.2</v>
+        <v>13.198</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>41.06</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.12</v>
+        <v>6.116</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.82</v>
+        <v>12.822</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.960000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45000.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>61.05</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.6</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>44.92</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>55.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.53</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_319.xlsx
+++ b/DATA_goal/Junction_Flooding_319.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45000.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.99</v>
+        <v>9.984999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.51</v>
+        <v>7.508</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.59</v>
+        <v>21.591</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.96</v>
+        <v>17.964</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.62</v>
+        <v>7.617</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.73</v>
+        <v>32.728</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.41</v>
+        <v>12.414</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.83</v>
+        <v>5.826</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.804</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.145</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.53</v>
+        <v>2.527</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8</v>
+        <v>8.005000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.03</v>
+        <v>11.029</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.28</v>
+        <v>6.277</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.289</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.66</v>
+        <v>112.656</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.85</v>
+        <v>21.854</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.39</v>
+        <v>7.393</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.17</v>
+        <v>15.166</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.08</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.036</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.78</v>
+        <v>15.784</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.43</v>
+        <v>6.434</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.61</v>
+        <v>5.608</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.67</v>
+        <v>6.673</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.24</v>
+        <v>9.243</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.166</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>30.19</v>
+        <v>30.195</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.3</v>
+        <v>4.298</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.961</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45000.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>44.66</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.01</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>61.05</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>18.53</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_319.xlsx
+++ b/DATA_goal/Junction_Flooding_319.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45000.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.984999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.508</v>
+        <v>7.51</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.591</v>
+        <v>21.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.964</v>
+        <v>17.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.617</v>
+        <v>7.62</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.728</v>
+        <v>32.73</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.414</v>
+        <v>12.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.826</v>
+        <v>5.83</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.193</v>
+        <v>8.19</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.804</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.145</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.527</v>
+        <v>2.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.005000000000001</v>
+        <v>8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.029</v>
+        <v>11.03</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.277</v>
+        <v>6.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.289</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.656</v>
+        <v>112.66</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.854</v>
+        <v>21.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.393</v>
+        <v>7.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.166</v>
+        <v>15.17</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.074999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.036</v>
+        <v>1.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.784</v>
+        <v>15.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.434</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.608</v>
+        <v>5.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.673</v>
+        <v>6.67</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.243</v>
+        <v>9.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>30.195</v>
+        <v>30.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.298</v>
+        <v>4.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.961</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45000.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>61.05</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.6</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>44.92</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>55.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.53</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
   </sheetData>
